--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_293.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_293.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:00:07.400000', '0:00:18.240000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1053361053361053</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:12.394648', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:23.040000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[('0:00:05.208150', '0:00:11.035850')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1652173913043478</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06650570676031607</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'C#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'C#:min', 'F#:min']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.14034, 18.686825)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(50.732063, 57.045249)]</t>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(101.06, 102.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(75.56, 95.68)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
